--- a/public/file/template-excel-payroll/template-import-payroll_V6.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\template test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969D6008-9A96-4DA3-9B29-7AC6B3DCF014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD28597-516D-4294-8E31-94364D4A0A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -112,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +153,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +176,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,9 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,13 +626,13 @@
       <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -706,7 +704,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="7"/>
+      <c r="Z2" s="14"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -876,86 +874,6 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9">
-        <v>12</v>
-      </c>
-      <c r="N9">
-        <v>13</v>
-      </c>
-      <c r="O9">
-        <v>14</v>
-      </c>
-      <c r="P9">
-        <v>15</v>
-      </c>
-      <c r="Q9">
-        <v>16</v>
-      </c>
-      <c r="R9">
-        <v>17</v>
-      </c>
-      <c r="S9">
-        <v>18</v>
-      </c>
-      <c r="T9">
-        <v>19</v>
-      </c>
-      <c r="U9">
-        <v>20</v>
-      </c>
-      <c r="V9">
-        <v>21</v>
-      </c>
-      <c r="W9">
-        <v>22</v>
-      </c>
-      <c r="X9">
-        <v>23</v>
-      </c>
-      <c r="Y9">
-        <v>24</v>
-      </c>
-      <c r="Z9">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/file/template-excel-payroll/template-import-payroll_V6.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD28597-516D-4294-8E31-94364D4A0A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE4DAB-3B07-4AB3-9AF2-966E268185D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>TOTAL ATTENDANCE</t>
   </si>
   <si>
-    <t>DAILY SALARY</t>
-  </si>
-  <si>
     <t xml:space="preserve">POSITION ALLOWANCE </t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>RAPEL / KOREKSI +</t>
+  </si>
+  <si>
+    <t>DAILY SALARY / BASIC SALARY</t>
   </si>
 </sst>
 </file>
@@ -215,9 +215,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -227,30 +224,33 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,18 +567,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
@@ -598,281 +598,169 @@
     <col min="26" max="26" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="W1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="14"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="7"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="7"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
